--- a/src/data/cwe-rules-filtered/tools_cwe_filtered.xlsx
+++ b/src/data/cwe-rules-filtered/tools_cwe_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,34 +37,43 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'CWE-330', 'CWE-327', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-330', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-330', 'CWE-327', 'CWE-532', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-200', 'CWE-327'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-330', 'CWE-200', 'CWE-327', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-200', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-327', 'CWE-200', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-200'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-330', 'CWE-532', 'CWE-89'})</t>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
   </si>
   <si>
     <t>frozenset({'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -422,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,120 +459,366 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.6547619047619048</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D2">
-        <v>0.873015873015873</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1.242937853107345</v>
+        <v>1.012048192771084</v>
       </c>
       <c r="F2">
-        <v>0.1279761904761906</v>
-      </c>
-      <c r="G2">
-        <v>2.34375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.009637188208616698</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.6547619047619048</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D3">
-        <v>0.873015873015873</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1.242937853107345</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="F3">
-        <v>0.1279761904761906</v>
-      </c>
-      <c r="G3">
-        <v>2.34375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02891156462585032</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.6547619047619048</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="D4">
-        <v>0.873015873015873</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.222222222222222</v>
+        <v>1.024390243902439</v>
       </c>
       <c r="F4">
-        <v>0.1190476190476191</v>
-      </c>
-      <c r="G4">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.02069160997732433</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.6547619047619048</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D5">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1.222222222222222</v>
+        <v>1.012048192771084</v>
       </c>
       <c r="F5">
-        <v>0.1190476190476191</v>
-      </c>
-      <c r="G5">
-        <v>2.999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.009637188208616698</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.024390243902439</v>
+      </c>
+      <c r="F6">
+        <v>0.01927437641723362</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>0.6547619047619048</v>
-      </c>
-      <c r="D6">
-        <v>0.9482758620689656</v>
-      </c>
-      <c r="E6">
-        <v>1.171399594320487</v>
-      </c>
-      <c r="F6">
-        <v>0.0958049886621315</v>
-      </c>
-      <c r="G6">
-        <v>3.682539682539683</v>
+      <c r="C7">
+        <v>0.8690476190476191</v>
+      </c>
+      <c r="D7">
+        <v>0.9012345679012346</v>
+      </c>
+      <c r="E7">
+        <v>1.037037037037037</v>
+      </c>
+      <c r="F7">
+        <v>0.03103741496598632</v>
+      </c>
+      <c r="G7">
+        <v>1.325892857142857</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.8690476190476191</v>
+      </c>
+      <c r="D8">
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="E8">
+        <v>1.024390243902439</v>
+      </c>
+      <c r="F8">
+        <v>0.02069160997732433</v>
+      </c>
+      <c r="G8">
+        <v>1.193121693121693</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D9">
+        <v>0.8292682926829269</v>
+      </c>
+      <c r="E9">
+        <v>1.024390243902439</v>
+      </c>
+      <c r="F9">
+        <v>0.01927437641723362</v>
+      </c>
+      <c r="G9">
+        <v>1.115646258503402</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.8690476190476191</v>
+      </c>
+      <c r="D10">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="E10">
+        <v>1.012048192771084</v>
+      </c>
+      <c r="F10">
+        <v>0.01034580498866211</v>
+      </c>
+      <c r="G10">
+        <v>1.086904761904761</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="D11">
+        <v>0.8192771084337349</v>
+      </c>
+      <c r="E11">
+        <v>1.012048192771084</v>
+      </c>
+      <c r="F11">
+        <v>0.009637188208616698</v>
+      </c>
+      <c r="G11">
+        <v>1.053968253968254</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.9642857142857144</v>
+      </c>
+      <c r="D12">
+        <v>0.9759036144578312</v>
+      </c>
+      <c r="E12">
+        <v>0.9997061416397296</v>
+      </c>
+      <c r="F12">
+        <v>-0.0002834467120181872</v>
+      </c>
+      <c r="G12">
+        <v>0.988095238095236</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
